--- a/RiskParity_Constraints.xlsx
+++ b/RiskParity_Constraints.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kit\Documents\Risk_Parity\RiskParity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113FEE4A-2D1A-4E9A-9968-BF72C2714573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E4BCD7-13FB-4360-A7FC-DAC0580F4C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30855" yWindow="3165" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7365" yWindow="3150" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RiskParity_Constraints" sheetId="1" r:id="rId1"/>
@@ -932,7 +932,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,7 +992,7 @@
         <v>14</v>
       </c>
       <c r="G2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1015,7 +1015,7 @@
         <v>14</v>
       </c>
       <c r="G3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1038,7 +1038,7 @@
         <v>14</v>
       </c>
       <c r="G4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1061,7 +1061,7 @@
         <v>14</v>
       </c>
       <c r="G5">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1084,7 +1084,7 @@
         <v>14</v>
       </c>
       <c r="G6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1107,7 +1107,7 @@
         <v>14</v>
       </c>
       <c r="G7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1130,7 +1130,7 @@
         <v>14</v>
       </c>
       <c r="G8">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/RiskParity_Constraints.xlsx
+++ b/RiskParity_Constraints.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -573,12 +573,35 @@
         <v>&gt;=</v>
       </c>
       <c r="G8" t="str">
-        <v>0</v>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <v>FALSE</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Asset</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Class 1</v>
+      </c>
+      <c r="E9" t="str">
+        <v>QQQ</v>
+      </c>
+      <c r="F9" t="str">
+        <v>&gt;</v>
+      </c>
+      <c r="G9" t="str">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K9"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/RiskParity_Constraints.xlsx
+++ b/RiskParity_Constraints.xlsx
@@ -575,6 +575,12 @@
       <c r="G8" t="str">
         <v>0.01</v>
       </c>
+      <c r="H8" t="str">
+        <v>Asset</v>
+      </c>
+      <c r="I8" t="str">
+        <v>Class 1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -597,6 +603,12 @@
       </c>
       <c r="G9" t="str">
         <v>0.05</v>
+      </c>
+      <c r="H9" t="str">
+        <v>Asset</v>
+      </c>
+      <c r="I9" t="str">
+        <v>Class 1</v>
       </c>
     </row>
   </sheetData>

--- a/RiskParity_Constraints.xlsx
+++ b/RiskParity_Constraints.xlsx
@@ -563,9 +563,6 @@
       <c r="C8" t="str">
         <v>Asset</v>
       </c>
-      <c r="D8" t="str">
-        <v>Class 1</v>
-      </c>
       <c r="E8" t="str">
         <v>SPY</v>
       </c>
@@ -577,9 +574,6 @@
       </c>
       <c r="H8" t="str">
         <v>Asset</v>
-      </c>
-      <c r="I8" t="str">
-        <v>Class 1</v>
       </c>
     </row>
     <row r="9">
@@ -592,9 +586,6 @@
       <c r="C9" t="str">
         <v>Asset</v>
       </c>
-      <c r="D9" t="str">
-        <v>Class 1</v>
-      </c>
       <c r="E9" t="str">
         <v>QQQ</v>
       </c>
@@ -606,9 +597,6 @@
       </c>
       <c r="H9" t="str">
         <v>Asset</v>
-      </c>
-      <c r="I9" t="str">
-        <v>Class 1</v>
       </c>
     </row>
   </sheetData>

--- a/RiskParity_Constraints.xlsx
+++ b/RiskParity_Constraints.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -561,7 +561,7 @@
         <v>FALSE</v>
       </c>
       <c r="C8" t="str">
-        <v>Asset</v>
+        <v>Assets</v>
       </c>
       <c r="E8" t="str">
         <v>SPY</v>
@@ -573,7 +573,7 @@
         <v>0.01</v>
       </c>
       <c r="H8" t="str">
-        <v>Asset</v>
+        <v>Assets</v>
       </c>
     </row>
     <row r="9">
@@ -584,7 +584,7 @@
         <v>FALSE</v>
       </c>
       <c r="C9" t="str">
-        <v>Asset</v>
+        <v>Assets</v>
       </c>
       <c r="E9" t="str">
         <v>QQQ</v>
@@ -596,12 +596,29 @@
         <v>0.05</v>
       </c>
       <c r="H9" t="str">
-        <v>Asset</v>
+        <v>Assets</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <v>FALSE</v>
+      </c>
+      <c r="C10" t="str">
+        <v>All Assets</v>
+      </c>
+      <c r="F10" t="str">
+        <v>&gt;=</v>
+      </c>
+      <c r="G10" t="str">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K10"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/RiskParity_Constraints.xlsx
+++ b/RiskParity_Constraints.xlsx
@@ -593,7 +593,7 @@
         <v>&gt;</v>
       </c>
       <c r="G9" t="str">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="H9" t="str">
         <v>Assets</v>

--- a/RiskParity_Constraints.xlsx
+++ b/RiskParity_Constraints.xlsx
@@ -6,6 +6,28 @@
     <sheet name="RiskParity_Constraints" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -435,7 +457,7 @@
         <v>&gt;=</v>
       </c>
       <c r="G2" t="str">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3">

--- a/RiskParity_Constraints.xlsx
+++ b/RiskParity_Constraints.xlsx
@@ -451,7 +451,7 @@
         <v>Industry</v>
       </c>
       <c r="E2" t="str">
-        <v>Bond</v>
+        <v>Bonds</v>
       </c>
       <c r="F2" t="str">
         <v>&gt;=</v>

--- a/RiskParity_Constraints.xlsx
+++ b/RiskParity_Constraints.xlsx
@@ -523,10 +523,10 @@
         <v>Energies</v>
       </c>
       <c r="F5" t="str">
-        <v>&gt;=</v>
+        <v>&lt;</v>
       </c>
       <c r="G5" t="str">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6">

--- a/RiskParity_Constraints.xlsx
+++ b/RiskParity_Constraints.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -592,7 +592,7 @@
         <v>&gt;=</v>
       </c>
       <c r="G8" t="str">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="H8" t="str">
         <v>Assets</v>
@@ -615,7 +615,7 @@
         <v>&gt;</v>
       </c>
       <c r="G9" t="str">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="H9" t="str">
         <v>Assets</v>
@@ -638,9 +638,32 @@
         <v>0.01</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <v>FALSE</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Classes</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Industry</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Classes</v>
+      </c>
+      <c r="F11" t="str">
+        <v>&gt;=</v>
+      </c>
+      <c r="G11" t="str">
+        <v>0.1</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K11"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/RiskParity_Constraints.xlsx
+++ b/RiskParity_Constraints.xlsx
@@ -652,7 +652,7 @@
         <v>Industry</v>
       </c>
       <c r="E11" t="str">
-        <v>Classes</v>
+        <v>Housing</v>
       </c>
       <c r="F11" t="str">
         <v>&gt;=</v>

--- a/RiskParity_Constraints.xlsx
+++ b/RiskParity_Constraints.xlsx
@@ -658,7 +658,7 @@
         <v>&gt;=</v>
       </c>
       <c r="G11" t="str">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>

--- a/RiskParity_Constraints.xlsx
+++ b/RiskParity_Constraints.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -661,9 +661,32 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <v>FALSE</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Assets</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Assets</v>
+      </c>
+      <c r="F12" t="str">
+        <v>&lt;</v>
+      </c>
+      <c r="G12" t="str">
+        <v>0.2</v>
+      </c>
+      <c r="H12" t="str">
+        <v>Assets</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K12"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/RiskParity_Constraints.xlsx
+++ b/RiskParity_Constraints.xlsx
@@ -672,7 +672,7 @@
         <v>Assets</v>
       </c>
       <c r="E12" t="str">
-        <v>Assets</v>
+        <v>IUES.L</v>
       </c>
       <c r="F12" t="str">
         <v>&lt;</v>

--- a/RiskParity_Constraints.xlsx
+++ b/RiskParity_Constraints.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -523,7 +523,7 @@
         <v>Energies</v>
       </c>
       <c r="F5" t="str">
-        <v>&lt;</v>
+        <v>=&lt;</v>
       </c>
       <c r="G5" t="str">
         <v>0.2</v>
@@ -612,7 +612,7 @@
         <v>QQQ</v>
       </c>
       <c r="F9" t="str">
-        <v>&gt;</v>
+        <v>&gt;=</v>
       </c>
       <c r="G9" t="str">
         <v>0.01</v>
@@ -661,32 +661,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>11</v>
-      </c>
-      <c r="B12" t="str">
-        <v>FALSE</v>
-      </c>
-      <c r="C12" t="str">
-        <v>Assets</v>
-      </c>
-      <c r="E12" t="str">
-        <v>IUES.L</v>
-      </c>
-      <c r="F12" t="str">
-        <v>&lt;</v>
-      </c>
-      <c r="G12" t="str">
-        <v>0.2</v>
-      </c>
-      <c r="H12" t="str">
-        <v>Assets</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K11"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/RiskParity_Constraints.xlsx
+++ b/RiskParity_Constraints.xlsx
@@ -612,7 +612,7 @@
         <v>QQQ</v>
       </c>
       <c r="F9" t="str">
-        <v>&gt;=</v>
+        <v>&gt;</v>
       </c>
       <c r="G9" t="str">
         <v>0.01</v>

--- a/RiskParity_Constraints.xlsx
+++ b/RiskParity_Constraints.xlsx
@@ -520,10 +520,10 @@
         <v>Industry</v>
       </c>
       <c r="E5" t="str">
-        <v>Energies</v>
+        <v>Energy</v>
       </c>
       <c r="F5" t="str">
-        <v>=&lt;</v>
+        <v>&lt;=</v>
       </c>
       <c r="G5" t="str">
         <v>0.2</v>

--- a/RiskParity_Constraints.xlsx
+++ b/RiskParity_Constraints.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -661,9 +661,32 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <v>FALSE</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Classes</v>
+      </c>
+      <c r="E12" t="str">
+        <v>IUES.L</v>
+      </c>
+      <c r="F12" t="str">
+        <v>&lt;</v>
+      </c>
+      <c r="G12" t="str">
+        <v>0.2</v>
+      </c>
+      <c r="H12" t="str">
+        <v>Assets</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K12"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/RiskParity_Constraints.xlsx
+++ b/RiskParity_Constraints.xlsx
@@ -2,6 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
   <sheets>
     <sheet name="RiskParity_Constraints" sheetId="1" r:id="rId1"/>
   </sheets>
@@ -28,6 +31,14 @@
     </bk>
   </cellMetadata>
 </metadata>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="1">
+  <si>
+    <t/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -662,26 +673,26 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="str">
-        <v>11</v>
-      </c>
-      <c r="B12" t="str">
-        <v>FALSE</v>
-      </c>
-      <c r="C12" t="str">
-        <v>Classes</v>
-      </c>
-      <c r="E12" t="str">
-        <v>IUES.L</v>
-      </c>
-      <c r="F12" t="str">
-        <v>&lt;</v>
-      </c>
-      <c r="G12" t="str">
-        <v>0.2</v>
-      </c>
-      <c r="H12" t="str">
-        <v>Assets</v>
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
